--- a/agreement_participants/cup/agr_participants_cup_current.xlsx
+++ b/agreement_participants/cup/agr_participants_cup_current.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">agr_name</t>
   </si>
@@ -20,12 +20,18 @@
     <t xml:space="preserve">agr_participant</t>
   </si>
   <si>
+    <t xml:space="preserve">agr_inst_tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">cri_inst_name_all</t>
   </si>
   <si>
     <t xml:space="preserve">cri_inst_id</t>
   </si>
   <si>
+    <t xml:space="preserve">edvarda_participant_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">publisher_standard_name</t>
   </si>
   <si>
@@ -35,70 +41,142 @@
     <t xml:space="preserve">Handelshøyskolen BI</t>
   </si>
   <si>
+    <t xml:space="preserve">bi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cambridge University Press</t>
   </si>
   <si>
+    <t xml:space="preserve">Bergen Global, Chr. Michelsens Institutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chr. Michelsen Institute</t>
+  </si>
+  <si>
     <t xml:space="preserve">Høgskulen På Vestlandet</t>
   </si>
   <si>
+    <t xml:space="preserve">hvl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Høgskulen på Vestlandet</t>
   </si>
   <si>
     <t xml:space="preserve">NIBIO</t>
   </si>
   <si>
+    <t xml:space="preserve">nibio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norsk institutt for bioøkonomi</t>
   </si>
   <si>
     <t xml:space="preserve">Nord Universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">nord</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nord universitet</t>
   </si>
   <si>
     <t xml:space="preserve">Norges teknisk-naturvitenskapelige universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">ntnu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntnu02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Olavs Hospital HF</t>
+  </si>
+  <si>
     <t xml:space="preserve">OsloMet - Storbyuniversitetet</t>
   </si>
   <si>
+    <t xml:space="preserve">oslomet</t>
+  </si>
+  <si>
     <t xml:space="preserve">OsloMet - storbyuniversitetet</t>
   </si>
   <si>
     <t xml:space="preserve">Institutt For Fredsforskning</t>
   </si>
   <si>
+    <t xml:space="preserve">prio</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRIO - Institutt for fredsforskning</t>
   </si>
   <si>
     <t xml:space="preserve">Universitetet i Agder</t>
   </si>
   <si>
+    <t xml:space="preserve">uia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Bergen</t>
   </si>
   <si>
+    <t xml:space="preserve">uib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uib02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Helse Bergen HF - Haukeland universitetssykehus</t>
   </si>
   <si>
     <t xml:space="preserve">UiO : Universitetsbiblioteket</t>
   </si>
   <si>
+    <t xml:space="preserve">uio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitetet i Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uio02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oslo universitetssykehus HF</t>
   </si>
   <si>
-    <t xml:space="preserve">Universitetet i Oslo</t>
+    <t xml:space="preserve">uio03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreftregisteret - Institutt for populasjonsbasert kreftforskning</t>
   </si>
   <si>
     <t xml:space="preserve">Universitetet I Stavanger</t>
   </si>
   <si>
+    <t xml:space="preserve">uis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitetet i Stavanger</t>
   </si>
   <si>
+    <t xml:space="preserve">uis02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helse Stavanger HF - Stavanger universitetssjukehus </t>
+  </si>
+  <si>
     <t xml:space="preserve">UiT - Norges arktiske universitet</t>
   </si>
   <si>
+    <t xml:space="preserve">uit</t>
+  </si>
+  <si>
     <t xml:space="preserve">UiT Norges arktiske universitet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uit02</t>
   </si>
   <si>
     <t xml:space="preserve">Universitetssykehuset Nord-Norge HF</t>
@@ -449,260 +527,448 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
         <v>158</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="F2" t="n">
+        <v>15353</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>203</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7416</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15355</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7677</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>203</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15449</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>204</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7677</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15481</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>194</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="n">
+        <v>204</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15499</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="n">
-        <v>215</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>194</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15507</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7435</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15507</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="n">
-        <v>201</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>215</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15439</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1936</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7435</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15516</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="n">
-        <v>184</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>201</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15548</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2012</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="n">
+        <v>184</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15549</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="n">
-        <v>185</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1936</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15549</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="n">
-        <v>217</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="n">
+        <v>185</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="n">
-        <v>186</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5737</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15550</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="n">
+        <v>217</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15551</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15551</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="n">
+        <v>186</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15552</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="n">
         <v>1902</v>
       </c>
-      <c r="E16" t="s">
-        <v>7</v>
+      <c r="F20" t="n">
+        <v>15552</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
